--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1084011.771709865</v>
+        <v>1084795.917647894</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1225477.018443405</v>
       </c>
     </row>
     <row r="8">
@@ -659,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,47 +670,47 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
@@ -716,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>148.8506349098461</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -750,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>114.6969565630368</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -786,7 +788,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -798,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>97.87804711440413</v>
       </c>
       <c r="X3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.5178444382804</v>
@@ -838,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -877,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -908,55 +910,55 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V5" t="n">
-        <v>174.144071639526</v>
-      </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>158.841334124391</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70.63583960161013</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -987,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>19.09345814857096</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="D7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1133,22 +1135,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>146.8920447697784</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>19.20171008547518</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>110.8840872503422</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1224,10 +1226,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1269,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>177.4147972445292</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,73 +1372,73 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="X11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D11" t="n">
+      <c r="Y11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="E11" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1461,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1497,13 +1499,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1512,7 +1514,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
-        <v>86.21539897205307</v>
+        <v>182.8712838381066</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1604,76 +1606,76 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="X14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="Y14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R14" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>9.211010870930394</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,10 +1688,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692106705274854</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1698,16 +1700,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>21.82829601151331</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1783,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1895,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1923,13 +1925,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1941,10 +1943,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>68.67434453202569</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="C20" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2096,58 +2098,58 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T20" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2166,22 +2168,22 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>114.4791386772755</v>
       </c>
       <c r="H21" t="n">
-        <v>23.26470831312118</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2220,10 +2222,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2248,46 +2250,46 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2318,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2360,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2372,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X23" t="n">
-        <v>212.2853856434421</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>91.00671443664322</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2412,13 +2414,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>59.24636080559989</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2533,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>92.95466700954542</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2597,13 +2599,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2612,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2637,7 +2639,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2655,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2694,10 +2696,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>183.8842973311964</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>1.944519418634053</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2722,52 +2724,52 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,76 +2791,76 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>212.2853856434421</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,25 +2870,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>109.7364879284881</v>
       </c>
       <c r="G30" t="n">
-        <v>125.1456920076454</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,13 +2921,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2934,10 +2936,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2947,70 +2949,70 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3032,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3074,16 +3076,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>241.0142888776591</v>
@@ -3105,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3126,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>31.60815104066432</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>126.4442840727572</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3247,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>241.0142888776591</v>
+        <v>9.234466016111838</v>
       </c>
       <c r="E35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3308,16 +3310,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>40.47627913313517</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>241.0142888776591</v>
@@ -3345,13 +3347,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>137.0062620734511</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3396,19 +3398,19 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>26.98580820205342</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3463,13 +3465,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3484,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,11 +3502,11 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>202.2946864288972</v>
-      </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
@@ -3521,10 +3523,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3585,25 +3587,25 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>117.5784330035868</v>
       </c>
       <c r="F39" t="n">
-        <v>91.59698917700666</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3648,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3661,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3703,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3749,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="T41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="U41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="V41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3822,7 +3824,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>81.13095251577731</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3864,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>152.6562894669719</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3977,7 +3979,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3992,13 +3994,13 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>159.0801288120801</v>
       </c>
     </row>
     <row r="45">
@@ -4065,10 +4067,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>80.86228322859426</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>43.67660021802681</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4150,52 +4152,52 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>246.4380211865037</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C2" t="n">
-        <v>246.4380211865037</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D2" t="n">
-        <v>246.4380211865037</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E2" t="n">
-        <v>246.4380211865037</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F2" t="n">
-        <v>239.4925204373003</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
         <v>16.44142755506243</v>
@@ -4340,40 +4342,40 @@
         <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O2" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T2" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U2" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V2" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W2" t="n">
-        <v>454.031803447393</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X2" t="n">
-        <v>246.4380211865037</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y2" t="n">
-        <v>246.4380211865037</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>132.2969392348976</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="C3" t="n">
-        <v>132.2969392348976</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="D3" t="n">
-        <v>132.2969392348976</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="E3" t="n">
-        <v>132.2969392348976</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="F3" t="n">
-        <v>132.2969392348976</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H3" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
@@ -4413,19 +4415,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>141.7989876128999</v>
+        <v>142.2888212580996</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N3" t="n">
-        <v>548.724319600695</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O3" t="n">
-        <v>639.4279001397708</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4434,25 +4436,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T3" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U3" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V3" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W3" t="n">
-        <v>547.4845037566762</v>
+        <v>622.0351340490334</v>
       </c>
       <c r="X3" t="n">
-        <v>339.8907214957869</v>
+        <v>622.0351340490334</v>
       </c>
       <c r="Y3" t="n">
-        <v>132.2969392348976</v>
+        <v>414.4413517881442</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4507,31 +4509,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R4" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S4" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T4" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U4" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V4" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W4" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>438.5744928260445</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="C5" t="n">
-        <v>438.5744928260445</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="D5" t="n">
-        <v>438.5744928260445</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="E5" t="n">
-        <v>438.5744928260445</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="F5" t="n">
-        <v>431.628992076841</v>
+        <v>239.4925204373003</v>
       </c>
       <c r="G5" t="n">
         <v>224.0352098159517</v>
       </c>
       <c r="H5" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I5" t="n">
         <v>16.44142755506243</v>
@@ -4571,10 +4573,10 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
         <v>583.2163723184226</v>
@@ -4592,25 +4594,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U5" t="n">
         <v>614.4775954922324</v>
       </c>
       <c r="V5" t="n">
-        <v>438.5744928260445</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W5" t="n">
-        <v>438.5744928260445</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="X5" t="n">
-        <v>438.5744928260445</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="Y5" t="n">
-        <v>438.5744928260445</v>
+        <v>246.4380211865037</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>268.5413885648676</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C6" t="n">
-        <v>268.5413885648676</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D6" t="n">
-        <v>268.5413885648676</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E6" t="n">
-        <v>268.5413885648676</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F6" t="n">
-        <v>268.5413885648676</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G6" t="n">
-        <v>129.8105631474831</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4653,13 +4655,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N6" t="n">
         <v>548.724319600695</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P6" t="n">
         <v>822.0713777531216</v>
@@ -4668,28 +4670,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>547.4845037566762</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U6" t="n">
-        <v>547.4845037566762</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V6" t="n">
-        <v>547.4845037566762</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="W6" t="n">
-        <v>547.4845037566762</v>
+        <v>393.0046794888054</v>
       </c>
       <c r="X6" t="n">
-        <v>547.4845037566762</v>
+        <v>185.4108972279162</v>
       </c>
       <c r="Y6" t="n">
-        <v>339.8907214957869</v>
+        <v>185.4108972279162</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4741,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.8838132313431</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="C8" t="n">
-        <v>199.2900309704538</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="D8" t="n">
-        <v>199.2900309704538</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="E8" t="n">
-        <v>50.91422817269779</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="F8" t="n">
-        <v>43.96872742349432</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="G8" t="n">
-        <v>28.51141680214578</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="H8" t="n">
         <v>28.51141680214578</v>
@@ -4805,16 +4807,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O8" t="n">
         <v>732.4113224610707</v>
@@ -4826,28 +4828,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U8" t="n">
-        <v>614.4775954922324</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="V8" t="n">
-        <v>614.4775954922324</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="W8" t="n">
-        <v>614.4775954922324</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="X8" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="Y8" t="n">
-        <v>406.8838132313431</v>
+        <v>463.0946480769296</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>541.6949824024424</v>
+        <v>653.8560407330535</v>
       </c>
       <c r="C9" t="n">
-        <v>541.6949824024424</v>
+        <v>479.4030114519265</v>
       </c>
       <c r="D9" t="n">
-        <v>392.7605727411911</v>
+        <v>367.3988829162274</v>
       </c>
       <c r="E9" t="n">
-        <v>392.7605727411911</v>
+        <v>367.3988829162274</v>
       </c>
       <c r="F9" t="n">
-        <v>246.2260147680761</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="G9" t="n">
-        <v>107.4951893506917</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H9" t="n">
         <v>107.4951893506917</v>
@@ -4890,13 +4892,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N9" t="n">
-        <v>752.1869855945927</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O9" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P9" t="n">
         <v>822.0713777531216</v>
@@ -4905,28 +4907,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>541.6949824024424</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W9" t="n">
-        <v>541.6949824024424</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X9" t="n">
-        <v>541.6949824024424</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y9" t="n">
-        <v>541.6949824024424</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="10">
@@ -4978,31 +4980,31 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y10" t="n">
         <v>38.93586374282289</v>
@@ -5015,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C11" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
         <v>16.44142755506243</v>
@@ -5048,13 +5050,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
@@ -5078,13 +5080,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X11" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y11" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G12" t="n">
         <v>16.44142755506243</v>
@@ -5124,19 +5126,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M12" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N12" t="n">
-        <v>570.0333416264414</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5145,25 +5147,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>720.9018483060073</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T12" t="n">
-        <v>518.7152536647734</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U12" t="n">
-        <v>311.1214714038841</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V12" t="n">
-        <v>311.1214714038841</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="W12" t="n">
-        <v>103.5276891429948</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="X12" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
     </row>
     <row r="13">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C14" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D14" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E14" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>651.2927635848137</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U14" t="n">
-        <v>651.2927635848137</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V14" t="n">
-        <v>651.2927635848137</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W14" t="n">
-        <v>651.2927635848137</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X14" t="n">
-        <v>651.2927635848137</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y14" t="n">
-        <v>651.2927635848137</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>344.2622243836464</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>344.2622243836464</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>185.0247693781909</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>38.49021140507588</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M15" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J16" t="n">
         <v>38.93586374282289</v>
@@ -5452,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>31.35113235729608</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G17" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H17" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I17" t="n">
         <v>31.35113235729608</v>
@@ -5543,22 +5545,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>487.2836868729568</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>487.2836868729568</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>487.2836868729568</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>340.7491288998418</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>202.0183034824573</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>88.64916789003665</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y20" t="n">
-        <v>477.1596022224361</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>487.2836868729568</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="C21" t="n">
-        <v>487.2836868729568</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="D21" t="n">
-        <v>487.2836868729568</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="E21" t="n">
-        <v>328.0462318675013</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="F21" t="n">
-        <v>181.5116738943863</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="G21" t="n">
-        <v>42.7808484770018</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5838,13 +5840,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V21" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W21" t="n">
-        <v>487.2836868729568</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X21" t="n">
-        <v>487.2836868729568</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="Y21" t="n">
-        <v>487.2836868729568</v>
+        <v>339.3395341116723</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
         <v>19.28114311021272</v>
@@ -5935,25 +5937,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W23" t="n">
-        <v>233.7108255783361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X23" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>344.6327430815143</v>
+        <v>111.2071172886402</v>
       </c>
       <c r="C24" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6072,19 +6074,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N24" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W24" t="n">
-        <v>720.6083788665362</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="X24" t="n">
-        <v>720.6083788665362</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="Y24" t="n">
-        <v>512.8480801015824</v>
+        <v>111.2071172886402</v>
       </c>
     </row>
     <row r="25">
@@ -6169,16 +6171,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
         <v>19.28114311021272</v>
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T26" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>325.7766548071333</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>194.4883050441255</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,19 +6311,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>234.810827406191</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>473.4149733950735</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N27" t="n">
-        <v>712.019119383956</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6342,13 +6344,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>778.3154410346802</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X27" t="n">
-        <v>570.4639408291474</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y27" t="n">
-        <v>362.7036420641935</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6500,10 +6502,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y29" t="n">
         <v>477.1596022224361</v>
@@ -6516,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>259.0600686093459</v>
+        <v>279.0604900729671</v>
       </c>
       <c r="C30" t="n">
-        <v>259.0600686093459</v>
+        <v>279.0604900729671</v>
       </c>
       <c r="D30" t="n">
-        <v>259.0600686093459</v>
+        <v>130.1260804117159</v>
       </c>
       <c r="E30" t="n">
-        <v>259.0600686093459</v>
+        <v>130.1260804117159</v>
       </c>
       <c r="F30" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6546,19 +6548,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6569,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W30" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X30" t="n">
-        <v>259.0600686093459</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y30" t="n">
-        <v>259.0600686093459</v>
+        <v>447.2758270930352</v>
       </c>
     </row>
     <row r="31">
@@ -6658,13 +6660,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6724,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W32" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X32" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>432.9682111954345</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>258.5151819143075</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6780,49 +6782,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V33" t="n">
-        <v>728.9050472788936</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="W33" t="n">
-        <v>728.9050472788936</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X33" t="n">
-        <v>601.1835482155025</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>601.1835482155025</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>518.2486856454962</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C35" t="n">
-        <v>518.2486856454962</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D35" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E35" t="n">
         <v>31.35113235729608</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T35" t="n">
-        <v>761.6974622895962</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U35" t="n">
-        <v>518.2486856454962</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V35" t="n">
-        <v>518.2486856454962</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W35" t="n">
-        <v>518.2486856454962</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X35" t="n">
-        <v>518.2486856454962</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y35" t="n">
-        <v>518.2486856454962</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>157.6713068207694</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E36" t="n">
         <v>19.28114311021272</v>
@@ -7020,19 +7022,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M36" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7044,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>533.6469426057913</v>
+        <v>936.7987633873499</v>
       </c>
       <c r="W36" t="n">
-        <v>533.6469426057913</v>
+        <v>936.7987633873499</v>
       </c>
       <c r="X36" t="n">
-        <v>533.6469426057913</v>
+        <v>728.9472631818171</v>
       </c>
       <c r="Y36" t="n">
-        <v>325.8866438408374</v>
+        <v>521.1869644168632</v>
       </c>
     </row>
     <row r="37">
@@ -7111,25 +7113,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>223.6192102101089</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W38" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X38" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>419.9752190668252</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="C39" t="n">
-        <v>419.9752190668252</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="D39" t="n">
-        <v>271.040809405574</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="E39" t="n">
-        <v>111.8033544001185</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7260,16 +7262,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7296,7 +7298,7 @@
         <v>627.7355178317791</v>
       </c>
       <c r="Y39" t="n">
-        <v>419.9752190668252</v>
+        <v>627.7355178317791</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>877.0247885897328</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>877.0247885897328</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>877.0247885897328</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G41" t="n">
         <v>16.44142755506243</v>
@@ -7412,10 +7414,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>196.517279139721</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M41" t="n">
         <v>379.753706324525</v>
@@ -7436,25 +7438,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="T41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="U41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="Y41" t="n">
         <v>639.2227743377304</v>
-      </c>
-      <c r="T41" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="U41" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="V41" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="W41" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="X41" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="42">
@@ -7464,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>190.8944568361894</v>
+        <v>272.8449139228332</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>98.39188464170618</v>
       </c>
       <c r="D42" t="n">
         <v>16.44142755506243</v>
@@ -7494,46 +7496,46 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>16.44142755506243</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>219.90409354896</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3667595428576</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O42" t="n">
-        <v>626.8294255367553</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P42" t="n">
-        <v>809.472903150106</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>720.9018483060073</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T42" t="n">
-        <v>566.7035761171468</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U42" t="n">
-        <v>566.7035761171468</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V42" t="n">
-        <v>566.7035761171468</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="W42" t="n">
-        <v>566.7035761171468</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="X42" t="n">
-        <v>566.7035761171468</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="Y42" t="n">
-        <v>359.1097938562575</v>
+        <v>441.0602509429012</v>
       </c>
     </row>
     <row r="43">
@@ -7622,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>28.51141680214578</v>
+        <v>396.792197863116</v>
       </c>
       <c r="C44" t="n">
-        <v>28.51141680214578</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="D44" t="n">
-        <v>28.51141680214578</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="E44" t="n">
-        <v>28.51141680214578</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="F44" t="n">
-        <v>28.51141680214578</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="G44" t="n">
-        <v>28.51141680214578</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="H44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M44" t="n">
         <v>379.753706324525</v>
@@ -7673,25 +7675,25 @@
         <v>811.9797623848946</v>
       </c>
       <c r="S44" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="T44" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="U44" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="V44" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="W44" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="X44" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="Y44" t="n">
         <v>604.3859801240053</v>
-      </c>
-      <c r="T44" t="n">
-        <v>604.3859801240053</v>
-      </c>
-      <c r="U44" t="n">
-        <v>604.3859801240053</v>
-      </c>
-      <c r="V44" t="n">
-        <v>604.3859801240053</v>
-      </c>
-      <c r="W44" t="n">
-        <v>396.792197863116</v>
-      </c>
-      <c r="X44" t="n">
-        <v>396.792197863116</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>236.1051990630351</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>98.12050152333947</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="C45" t="n">
-        <v>98.12050152333947</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="D45" t="n">
-        <v>98.12050152333947</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="E45" t="n">
-        <v>98.12050152333947</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G45" t="n">
         <v>16.44142755506243</v>
@@ -7731,46 +7733,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M45" t="n">
-        <v>366.5706756325438</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>777.9535997551147</v>
       </c>
       <c r="S45" t="n">
-        <v>720.9018483060073</v>
+        <v>777.9535997551147</v>
       </c>
       <c r="T45" t="n">
-        <v>720.9018483060073</v>
+        <v>777.9535997551147</v>
       </c>
       <c r="U45" t="n">
-        <v>720.9018483060073</v>
+        <v>777.9535997551147</v>
       </c>
       <c r="V45" t="n">
-        <v>720.9018483060073</v>
+        <v>777.9535997551147</v>
       </c>
       <c r="W45" t="n">
-        <v>513.308066045118</v>
+        <v>570.3598174942255</v>
       </c>
       <c r="X45" t="n">
-        <v>305.7142837842288</v>
+        <v>362.7660352333362</v>
       </c>
       <c r="Y45" t="n">
-        <v>98.12050152333947</v>
+        <v>155.1722529724469</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H46" t="n">
         <v>687.5390872628509</v>
@@ -7843,13 +7845,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
   </sheetData>
@@ -7988,13 +7990,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>139.0491612396719</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8070,13 +8072,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>234.2160227667432</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,13 +8221,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8301,16 +8303,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
-        <v>234.2160227667432</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8453,19 +8455,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>360.3696370111358</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8538,16 +8540,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>213.1865395540696</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8696,16 +8698,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8772,22 +8774,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>230.174158102173</v>
       </c>
       <c r="M12" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>152.8659767558044</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,13 +8929,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -8942,7 +8944,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,16 +9008,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>154.8597658442563</v>
       </c>
       <c r="N15" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9486,16 +9488,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>301.248502863135</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9720,22 +9722,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N24" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>229.6373335557741</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9966,13 +9968,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,10 +10196,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M30" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10206,10 +10208,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,13 +10430,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>368.5691090902119</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,13 +10670,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10908,19 +10910,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,13 +11062,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M41" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11142,7 +11144,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
@@ -11151,13 +11153,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>269.7148239424616</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.7075060082595</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,13 +11299,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M44" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11379,13 +11381,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>163.6582985944894</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,13 +23260,13 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>200.9102526910243</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23318,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>168.2208513361757</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23349,7 +23351,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
@@ -23385,13 +23387,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23400,7 +23402,7 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>119.5575862314244</v>
+        <v>22.90170136537088</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23504,7 +23506,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23513,10 +23515,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,16 +23539,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>213.8848386932009</v>
+        <v>42.075732182894</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23555,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="15">
@@ -23574,10 +23576,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>165.0163922830409</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23586,16 +23588,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>115.5152211516973</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23671,10 +23673,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,16 +23785,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>22.7597532753017</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23811,13 +23813,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23829,10 +23831,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.72228831938939</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23935,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>371.540785507301</v>
       </c>
       <c r="C20" t="n">
-        <v>152.9875061275654</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23984,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,31 +24013,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24054,22 +24056,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>22.86437848593511</v>
       </c>
       <c r="H21" t="n">
-        <v>88.97073592337529</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24108,10 +24110,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24136,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.9909793584588</v>
@@ -24175,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24206,10 +24208,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24248,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24260,16 +24262,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>157.4457150350269</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>81.70178455167252</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24300,13 +24302,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>52.98908343089657</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,13 +24335,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24409,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24421,7 +24423,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>289.7791746539352</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24461,7 +24463,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24485,13 +24487,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24500,16 +24502,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24525,7 +24527,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24543,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24582,10 +24584,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>67.81068582972321</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>203.8284657848434</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24610,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24655,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24740,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>35.33272446489578</v>
       </c>
       <c r="G30" t="n">
-        <v>12.19782515556528</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24807,13 +24809,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24822,10 +24824,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24898,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24920,13 +24922,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24962,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>149.0074258151476</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>86.73796959247585</v>
@@ -24993,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25014,7 +25016,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25041,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>201.1924361087609</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>79.3287011307203</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,13 +25156,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>345.4485756045711</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25196,16 +25198,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>182.6195704309962</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>10.33136403017744</v>
@@ -25233,13 +25235,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>35.70223691486467</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25284,19 +25286,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>205.8147789473718</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25351,13 +25353,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25372,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>156.0574714863295</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>162.9782053421103</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25409,10 +25411,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25473,25 +25475,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>40.06664745181419</v>
       </c>
       <c r="F39" t="n">
-        <v>53.47222321637722</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25536,7 +25538,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25549,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2218967649542</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25591,7 +25593,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
@@ -25600,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25637,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25676,16 +25678,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>27.99995220500799</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25694,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>205.2178212748162</v>
       </c>
     </row>
     <row r="42">
@@ -25710,7 +25712,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>66.31411304886144</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25752,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>47.50843922784969</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25865,7 +25867,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25880,13 +25882,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>168.4453839490745</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25925,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>227.1578098439735</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="45">
@@ -25953,10 +25955,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>64.20692916478961</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>56.48123393461632</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26038,7 +26040,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>394598.1612555141</v>
+        <v>394598.1612555142</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>415639.8611086184</v>
+        <v>415639.8611086186</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>415639.8611086186</v>
+        <v>415639.8611086184</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>415639.8611086184</v>
+        <v>415639.8611086186</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>415639.8611086184</v>
+        <v>415639.8611086183</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>415639.8611086186</v>
+        <v>415639.8611086184</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>394598.161255514</v>
+        <v>394598.1612555141</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>394598.1612555141</v>
+        <v>394598.1612555142</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185702</v>
       </c>
       <c r="C2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>189309.1702019179</v>
+        <v>189309.170201918</v>
       </c>
       <c r="F2" t="n">
         <v>189309.1702019179</v>
@@ -26335,13 +26337,13 @@
         <v>199392.8070375987</v>
       </c>
       <c r="J2" t="n">
-        <v>199392.8070375987</v>
+        <v>199392.8070375988</v>
       </c>
       <c r="K2" t="n">
-        <v>199392.8070375987</v>
+        <v>199392.8070375988</v>
       </c>
       <c r="L2" t="n">
-        <v>199392.8070375987</v>
+        <v>199392.8070375988</v>
       </c>
       <c r="M2" t="n">
         <v>199392.8070375987</v>
@@ -26350,10 +26352,10 @@
         <v>199392.8070375988</v>
       </c>
       <c r="O2" t="n">
+        <v>189309.170201918</v>
+      </c>
+      <c r="P2" t="n">
         <v>189309.1702019179</v>
-      </c>
-      <c r="P2" t="n">
-        <v>189309.170201918</v>
       </c>
     </row>
     <row r="3">
@@ -26424,7 +26426,7 @@
         <v>320447.2707415524</v>
       </c>
       <c r="E4" t="n">
-        <v>31909.39659410429</v>
+        <v>31909.3965941043</v>
       </c>
       <c r="F4" t="n">
         <v>31909.3965941043</v>
@@ -26436,7 +26438,7 @@
         <v>33649.84678425771</v>
       </c>
       <c r="I4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="J4" t="n">
         <v>33649.84678425771</v>
@@ -26451,13 +26453,13 @@
         <v>33649.84678425771</v>
       </c>
       <c r="N4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="O4" t="n">
+        <v>31909.39659410429</v>
+      </c>
+      <c r="P4" t="n">
         <v>31909.3965941043</v>
-      </c>
-      <c r="P4" t="n">
-        <v>31909.39659410429</v>
       </c>
     </row>
     <row r="5">
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57180.94965348032</v>
+        <v>57180.94965348053</v>
       </c>
       <c r="C6" t="n">
         <v>126054.7062351702</v>
       </c>
       <c r="D6" t="n">
-        <v>126054.7062351703</v>
+        <v>126054.7062351701</v>
       </c>
       <c r="E6" t="n">
         <v>144904.2886659662</v>
@@ -26540,10 +26542,10 @@
         <v>151089.2914895794</v>
       </c>
       <c r="I6" t="n">
-        <v>151089.2914895794</v>
+        <v>151089.2914895793</v>
       </c>
       <c r="J6" t="n">
-        <v>97316.78059936984</v>
+        <v>97316.78059936999</v>
       </c>
       <c r="K6" t="n">
         <v>151089.2914895794</v>
@@ -26561,7 +26563,7 @@
         <v>144904.2886659662</v>
       </c>
       <c r="P6" t="n">
-        <v>144904.2886659663</v>
+        <v>144904.2886659662</v>
       </c>
     </row>
   </sheetData>
@@ -27379,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>184.2527743897701</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -27421,13 +27423,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27436,13 +27438,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>200.3903338075669</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27470,16 +27472,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>22.6465606001738</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27506,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27518,10 +27520,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>153.8169360465155</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0.1648513390239543</v>
@@ -27558,10 +27560,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>71.32518834398851</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27597,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>156.0574714863295</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27628,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -27664,19 +27666,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>153.6081868306089</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>190.3996345930221</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>95.89734404825721</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27707,16 +27709,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>232.6015250123486</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>59.05078607424917</v>
       </c>
       <c r="D7" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27798,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27853,22 +27855,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>235.0383253024833</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>320.273092030292</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27898,7 +27900,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27907,7 +27909,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>36.56097831429658</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27944,10 +27946,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27977,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27989,7 +27991,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>55.38578990489603</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28050,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28062,7 +28064,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>119.7495544039028</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>107.6671775926096</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -34708,13 +34710,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,7 +34783,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.4947814597977008</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34790,13 +34792,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,13 +34941,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35021,16 +35023,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>130.2714255894491</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35258,16 +35260,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
+        <v>91.61977832229879</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N9" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O9" t="n">
-        <v>70.5902951096252</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35416,16 +35418,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,22 +35494,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="M12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>21.52426467247106</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35662,7 +35664,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
+        <v>12.72573192223801</v>
+      </c>
+      <c r="N15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N15" t="n">
-        <v>21.52426467247106</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
@@ -35744,7 +35746,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -36206,16 +36208,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798017</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36440,22 +36442,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N24" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,7 +36679,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36686,13 +36688,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,10 +36916,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M30" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36926,10 +36928,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,13 +37150,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>226.4350751681936</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37166,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37552,7 +37554,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37628,19 +37630,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M41" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37862,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
@@ -37871,13 +37873,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>127.1185794980172</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>12.72573192223796</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M44" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38099,13 +38101,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>91.61977832229879</v>
+      </c>
+      <c r="N45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M45" t="n">
-        <v>21.52426467247106</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
@@ -38114,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1084795.917647894</v>
+        <v>1015313.191270219</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443405</v>
+        <v>1151840.918742179</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797656</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6361732.680295734</v>
+        <v>6419104.575280687</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>205.5178444382804</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>205.5178444382804</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S2" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>3.015063725959893</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>47.13383555196375</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -752,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>97.87804711440413</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>3.892417739585678</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>105.6245995301945</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>205.5178444382804</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,25 +940,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>205.5178444382804</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>158.841334124391</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -983,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>15.5904943569804</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>19.09345814857096</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
     </row>
     <row r="8">
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>205.5178444382804</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>205.5178444382804</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>19.20171008547518</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>198.7050131246913</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>110.8840872503422</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1232,7 +1232,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1274,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>31.01473526993907</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.83685490770582</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1414,10 +1414,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -1499,22 +1499,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>119.7923727229346</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>182.8712838381066</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1572,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1612,16 +1612,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>181.0201173812374</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>21.82829601151331</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>169.1712260308057</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1806,16 +1806,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1861,13 +1861,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="I17" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1925,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>131.7659851933074</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2125,22 +2125,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2174,13 +2174,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>114.4791386772755</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -2216,16 +2216,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>50.27035956252695</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>91.00671443664322</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>62.11690385378651</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2557,11 +2557,11 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2599,13 +2599,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,19 +2633,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>48.4497794585369</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2696,10 +2696,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>1.944519418634053</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2794,70 +2794,70 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S29" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,19 +2870,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>62.86349518004438</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>109.7364879284881</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2927,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
     </row>
     <row r="33">
@@ -3110,25 +3110,25 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>144.2328190472899</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3161,19 +3161,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>31.60815104066432</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3189,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>9.234466016111838</v>
-      </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3353,10 +3353,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3365,10 +3365,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>5.18353989285822</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3398,13 +3398,13 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>26.98580820205342</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3465,13 +3465,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,28 +3505,28 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3547,22 +3547,22 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3590,22 +3590,22 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>117.5784330035868</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3644,13 +3644,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,13 +3748,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="F41" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3784,13 +3784,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,19 +3818,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>81.13095251577731</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>13.16315991169308</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>205.5178444382804</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>134.667568689459</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>43.67660021802681</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4179,13 +4179,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614.4775954922324</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="C2" t="n">
-        <v>431.628992076841</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="D2" t="n">
-        <v>431.628992076841</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="E2" t="n">
-        <v>431.628992076841</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="F2" t="n">
-        <v>224.0352098159517</v>
+        <v>85.86136179523773</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>614.4775954922324</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="T2" t="n">
-        <v>614.4775954922324</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="U2" t="n">
-        <v>614.4775954922324</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="V2" t="n">
-        <v>614.4775954922324</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="W2" t="n">
-        <v>614.4775954922324</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="X2" t="n">
-        <v>614.4775954922324</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="Y2" t="n">
-        <v>614.4775954922324</v>
+        <v>92.8068625444412</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>246.2260147680761</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="C3" t="n">
-        <v>246.2260147680761</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="D3" t="n">
-        <v>246.2260147680761</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="E3" t="n">
-        <v>246.2260147680761</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="F3" t="n">
-        <v>246.2260147680761</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="G3" t="n">
-        <v>107.4951893506917</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="H3" t="n">
-        <v>107.4951893506917</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>142.2888212580996</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M3" t="n">
-        <v>345.7514872519972</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="N3" t="n">
-        <v>549.2141532458947</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O3" t="n">
-        <v>752.6768192397923</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>720.9018483060073</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
-        <v>720.9018483060073</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U3" t="n">
-        <v>720.9018483060073</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V3" t="n">
-        <v>720.9018483060073</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W3" t="n">
-        <v>622.0351340490334</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="X3" t="n">
-        <v>622.0351340490334</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="Y3" t="n">
-        <v>414.4413517881442</v>
+        <v>105.9439968277793</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="K4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L4" t="n">
-        <v>43.75555256277541</v>
+        <v>31.59512732850896</v>
       </c>
       <c r="M4" t="n">
-        <v>82.94359075499759</v>
+        <v>70.78316552073113</v>
       </c>
       <c r="N4" t="n">
-        <v>126.6344414104339</v>
+        <v>114.4740161761674</v>
       </c>
       <c r="O4" t="n">
-        <v>150.9737180453332</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.224788009872</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="R4" t="n">
-        <v>148.224788009872</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="S4" t="n">
-        <v>148.224788009872</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="T4" t="n">
-        <v>148.224788009872</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="U4" t="n">
-        <v>148.224788009872</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="V4" t="n">
-        <v>148.224788009872</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>26.77543850855644</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>246.4380211865037</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C5" t="n">
-        <v>246.4380211865037</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D5" t="n">
-        <v>246.4380211865037</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E5" t="n">
-        <v>246.4380211865037</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F5" t="n">
-        <v>239.4925204373003</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>224.0352098159517</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>224.0352098159517</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>176.2910403306274</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>614.4775954922324</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>614.4775954922324</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>614.4775954922324</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V5" t="n">
-        <v>406.8838132313431</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W5" t="n">
-        <v>246.4380211865037</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X5" t="n">
-        <v>246.4380211865037</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y5" t="n">
-        <v>246.4380211865037</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17.19556020784815</v>
+        <v>593.6552238493341</v>
       </c>
       <c r="C6" t="n">
-        <v>17.19556020784815</v>
+        <v>593.6552238493341</v>
       </c>
       <c r="D6" t="n">
-        <v>17.19556020784815</v>
+        <v>593.6552238493341</v>
       </c>
       <c r="E6" t="n">
-        <v>17.19556020784815</v>
+        <v>434.4177688438786</v>
       </c>
       <c r="F6" t="n">
-        <v>17.19556020784815</v>
+        <v>287.8832108707636</v>
       </c>
       <c r="G6" t="n">
-        <v>17.19556020784815</v>
+        <v>149.1523854533791</v>
       </c>
       <c r="H6" t="n">
-        <v>17.19556020784815</v>
+        <v>35.78324986095843</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>345.2616536067974</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>548.724319600695</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>752.1869855945927</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>619.8847831118876</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>619.8847831118876</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V6" t="n">
-        <v>412.2910008509983</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W6" t="n">
-        <v>393.0046794888054</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X6" t="n">
-        <v>185.4108972279162</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y6" t="n">
-        <v>185.4108972279162</v>
+        <v>761.8705608694022</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.224788009872</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>148.224788009872</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>148.224788009872</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>148.224788009872</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>148.224788009872</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>148.224788009872</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>148.224788009872</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>148.224788009872</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>148.224788009872</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>148.224788009872</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>463.0946480769296</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C8" t="n">
-        <v>463.0946480769296</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D8" t="n">
-        <v>463.0946480769296</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E8" t="n">
-        <v>463.0946480769296</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F8" t="n">
-        <v>255.5008658160403</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>47.90708355515102</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>28.51141680214578</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>196.517279139721</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>399.9799451336186</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>603.4426111275161</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>670.6884303378189</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>670.6884303378189</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>670.6884303378189</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>670.6884303378189</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V8" t="n">
-        <v>670.6884303378189</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W8" t="n">
-        <v>670.6884303378189</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="X8" t="n">
-        <v>463.0946480769296</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="Y8" t="n">
-        <v>463.0946480769296</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>653.8560407330535</v>
+        <v>588.1108339952409</v>
       </c>
       <c r="C9" t="n">
-        <v>479.4030114519265</v>
+        <v>588.1108339952409</v>
       </c>
       <c r="D9" t="n">
-        <v>367.3988829162274</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="E9" t="n">
-        <v>367.3988829162274</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="F9" t="n">
-        <v>220.8643249431123</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G9" t="n">
-        <v>220.8643249431123</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
-        <v>107.4951893506917</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>435.9652341458732</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9652341458732</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W9" t="n">
-        <v>822.0713777531216</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X9" t="n">
-        <v>822.0713777531216</v>
+        <v>588.1108339952409</v>
       </c>
       <c r="Y9" t="n">
-        <v>822.0713777531216</v>
+        <v>588.1108339952409</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.93586374282289</v>
+        <v>961.308225475175</v>
       </c>
       <c r="C10" t="n">
-        <v>38.93586374282289</v>
+        <v>961.308225475175</v>
       </c>
       <c r="D10" t="n">
-        <v>38.93586374282289</v>
+        <v>961.308225475175</v>
       </c>
       <c r="E10" t="n">
-        <v>38.93586374282289</v>
+        <v>961.308225475175</v>
       </c>
       <c r="F10" t="n">
-        <v>38.93586374282289</v>
+        <v>961.308225475175</v>
       </c>
       <c r="G10" t="n">
-        <v>38.93586374282289</v>
+        <v>961.308225475175</v>
       </c>
       <c r="H10" t="n">
-        <v>38.93586374282289</v>
+        <v>961.308225475175</v>
       </c>
       <c r="I10" t="n">
-        <v>38.93586374282289</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K10" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L10" t="n">
-        <v>43.75555256277541</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M10" t="n">
-        <v>82.94359075499759</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N10" t="n">
-        <v>126.6344414104339</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O10" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.224788009872</v>
+        <v>961.308225475175</v>
       </c>
       <c r="R10" t="n">
-        <v>148.224788009872</v>
+        <v>961.308225475175</v>
       </c>
       <c r="S10" t="n">
-        <v>148.224788009872</v>
+        <v>961.308225475175</v>
       </c>
       <c r="T10" t="n">
-        <v>38.93586374282289</v>
+        <v>961.308225475175</v>
       </c>
       <c r="U10" t="n">
-        <v>38.93586374282289</v>
+        <v>961.308225475175</v>
       </c>
       <c r="V10" t="n">
-        <v>38.93586374282289</v>
+        <v>961.308225475175</v>
       </c>
       <c r="W10" t="n">
-        <v>38.93586374282289</v>
+        <v>961.308225475175</v>
       </c>
       <c r="X10" t="n">
-        <v>38.93586374282289</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.93586374282289</v>
+        <v>961.308225475175</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>706.4576170384386</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W11" t="n">
-        <v>639.2227743377304</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X11" t="n">
-        <v>431.628992076841</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y11" t="n">
-        <v>224.0352098159517</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>155.1722529724469</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="C12" t="n">
-        <v>155.1722529724469</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="D12" t="n">
-        <v>155.1722529724469</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E12" t="n">
-        <v>155.1722529724469</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F12" t="n">
-        <v>155.1722529724469</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>232.5025681519757</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>435.9652341458732</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N12" t="n">
-        <v>435.9652341458732</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>547.4845037566762</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>547.4845037566762</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U12" t="n">
-        <v>547.4845037566762</v>
+        <v>539.698634732455</v>
       </c>
       <c r="V12" t="n">
-        <v>547.4845037566762</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="W12" t="n">
-        <v>339.8907214957869</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="X12" t="n">
-        <v>155.1722529724469</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="Y12" t="n">
-        <v>155.1722529724469</v>
+        <v>304.5465265007123</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>16.44142755506243</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>196.517279139721</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>399.9799451336186</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>603.4426111275161</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>752.6375612701642</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>639.2227743377304</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U14" t="n">
-        <v>639.2227743377304</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V14" t="n">
-        <v>639.2227743377304</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W14" t="n">
-        <v>431.628992076841</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X14" t="n">
-        <v>224.0352098159517</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.44142755506243</v>
+        <v>738.7078125165641</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>518.7152536647734</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="C15" t="n">
-        <v>344.2622243836464</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="D15" t="n">
-        <v>344.2622243836464</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E15" t="n">
-        <v>185.0247693781909</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F15" t="n">
-        <v>38.49021140507588</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>219.90409354896</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>232.5025681519757</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>720.9018483060073</v>
+        <v>692.0075997697787</v>
       </c>
       <c r="T15" t="n">
-        <v>518.7152536647734</v>
+        <v>692.0075997697787</v>
       </c>
       <c r="U15" t="n">
-        <v>518.7152536647734</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="V15" t="n">
-        <v>518.7152536647734</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="W15" t="n">
-        <v>518.7152536647734</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="X15" t="n">
-        <v>518.7152536647734</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="Y15" t="n">
-        <v>518.7152536647734</v>
+        <v>463.7839815061678</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>152.3780978509273</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5600,10 +5600,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
         <v>542.809531908403</v>
@@ -5621,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>152.3780978509273</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>152.3780978509273</v>
       </c>
     </row>
     <row r="19">
@@ -5697,22 +5697,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="C20" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="D20" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="E20" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="F20" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="G20" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G20" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>274.0360370837871</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>274.0360370837871</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W20" t="n">
-        <v>274.0360370837871</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X20" t="n">
-        <v>274.0360370837871</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y20" t="n">
-        <v>274.0360370837871</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>339.3395341116723</v>
+        <v>343.4227147053767</v>
       </c>
       <c r="C21" t="n">
-        <v>339.3395341116723</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D21" t="n">
-        <v>339.3395341116723</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>339.3395341116723</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>339.3395341116723</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
         <v>20.03527576299844</v>
@@ -5843,10 +5843,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5864,19 +5864,19 @@
         <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>790.6398109613051</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V21" t="n">
-        <v>790.6398109613051</v>
+        <v>511.6380517254448</v>
       </c>
       <c r="W21" t="n">
-        <v>547.1910343172051</v>
+        <v>511.6380517254448</v>
       </c>
       <c r="X21" t="n">
-        <v>339.3395341116723</v>
+        <v>511.6380517254448</v>
       </c>
       <c r="Y21" t="n">
-        <v>339.3395341116723</v>
+        <v>511.6380517254448</v>
       </c>
     </row>
     <row r="22">
@@ -5934,7 +5934,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
         <v>19.28114311021272</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>111.2071172886402</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>901.3128081835791</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>901.3128081835791</v>
       </c>
       <c r="U24" t="n">
-        <v>562.4161926976942</v>
+        <v>673.0891899199682</v>
       </c>
       <c r="V24" t="n">
-        <v>562.4161926976942</v>
+        <v>437.9370816882255</v>
       </c>
       <c r="W24" t="n">
-        <v>318.9674160535941</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="X24" t="n">
-        <v>318.9674160535941</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="Y24" t="n">
-        <v>111.2071172886402</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="25">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D26" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="C26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D26" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="W26" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="X26" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="W26" t="n">
+      <c r="Y26" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="X26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>342.668582052591</v>
+        <v>548.4453565401495</v>
       </c>
       <c r="C27" t="n">
-        <v>168.215552771464</v>
+        <v>373.9923272590225</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>373.9923272590225</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>214.754872253567</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>68.22031428045202</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>68.22031428045202</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>68.22031428045202</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6311,16 +6311,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>621.8469951458151</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>860.4511411346975</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6344,13 +6344,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X27" t="n">
-        <v>718.6442178376129</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y27" t="n">
-        <v>510.883919072659</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="28">
@@ -6414,7 +6414,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
         <v>19.28114311021272</v>
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>279.0604900729671</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C30" t="n">
-        <v>279.0604900729671</v>
+        <v>82.77962309005554</v>
       </c>
       <c r="D30" t="n">
-        <v>130.1260804117159</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>130.1260804117159</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>862.8876260635219</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>862.8876260635219</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>655.0361258579891</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y30" t="n">
-        <v>447.2758270930352</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6727,25 +6727,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V32" t="n">
-        <v>710.516763498309</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W32" t="n">
-        <v>710.516763498309</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X32" t="n">
-        <v>710.516763498309</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="Y32" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>543.7805653048071</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>394.8461556435558</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>394.8461556435558</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6788,13 +6788,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6809,22 +6809,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U33" t="n">
-        <v>259.0600686093459</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V33" t="n">
-        <v>227.1326433157456</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W33" t="n">
-        <v>227.1326433157456</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>284.1276524520142</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C35" t="n">
-        <v>40.6788758079141</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D35" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E35" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F35" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6964,25 +6964,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="36">
@@ -6992,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>352.9716273967953</v>
+        <v>346.2587618989155</v>
       </c>
       <c r="C36" t="n">
-        <v>178.5185981156682</v>
+        <v>171.8057326177884</v>
       </c>
       <c r="D36" t="n">
-        <v>178.5185981156682</v>
+        <v>171.8057326177884</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>171.8057326177884</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>25.27117464467341</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>25.27117464467341</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>25.27117464467341</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
         <v>542.809531908403</v>
@@ -7046,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V36" t="n">
-        <v>936.7987633873499</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W36" t="n">
-        <v>936.7987633873499</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X36" t="n">
-        <v>728.9472631818171</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="Y36" t="n">
-        <v>521.1869644168632</v>
+        <v>346.2587618989155</v>
       </c>
     </row>
     <row r="37">
@@ -7113,25 +7113,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>477.1596022224361</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C38" t="n">
-        <v>233.7108255783361</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D38" t="n">
-        <v>233.7108255783361</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="E38" t="n">
-        <v>233.7108255783361</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="F38" t="n">
-        <v>233.7108255783361</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="G38" t="n">
-        <v>233.7108255783361</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H38" t="n">
-        <v>233.7108255783361</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V38" t="n">
-        <v>720.6083788665362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W38" t="n">
-        <v>720.6083788665362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y38" t="n">
-        <v>477.1596022224361</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="39">
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>627.7355178317791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>627.7355178317791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>627.7355178317791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>627.7355178317791</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W39" t="n">
-        <v>627.7355178317791</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X39" t="n">
-        <v>627.7355178317791</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y39" t="n">
-        <v>627.7355178317791</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="40">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>431.628992076841</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C41" t="n">
-        <v>431.628992076841</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D41" t="n">
-        <v>431.628992076841</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E41" t="n">
-        <v>431.628992076841</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F41" t="n">
-        <v>224.0352098159517</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V41" t="n">
-        <v>822.0713777531216</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W41" t="n">
-        <v>822.0713777531216</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X41" t="n">
-        <v>822.0713777531216</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y41" t="n">
-        <v>639.2227743377304</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>272.8449139228332</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C42" t="n">
-        <v>98.39188464170618</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>338.3492772117056</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>179.1118222062501</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>32.57726423313503</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>32.57726423313503</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>32.57726423313503</v>
       </c>
       <c r="I42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>423.3667595428576</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>626.8294255367553</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O42" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>648.6540332037905</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T42" t="n">
-        <v>648.6540332037905</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U42" t="n">
-        <v>648.6540332037905</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V42" t="n">
-        <v>648.6540332037905</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W42" t="n">
-        <v>648.6540332037905</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X42" t="n">
-        <v>648.6540332037905</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y42" t="n">
-        <v>441.0602509429012</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.792197863116</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C44" t="n">
-        <v>189.1984156022267</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>189.1984156022267</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>189.1984156022267</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>189.1984156022267</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>189.1984156022267</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>176.2910403306274</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>811.9797623848946</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>811.9797623848946</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U44" t="n">
-        <v>811.9797623848946</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V44" t="n">
-        <v>811.9797623848946</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W44" t="n">
-        <v>811.9797623848946</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X44" t="n">
-        <v>811.9797623848946</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y44" t="n">
-        <v>604.3859801240053</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>155.1722529724469</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C45" t="n">
-        <v>155.1722529724469</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>155.1722529724469</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>155.1722529724469</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>155.1722529724469</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>141.7989876128999</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>232.5025681519757</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9652341458732</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>777.9535997551147</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>777.9535997551147</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>777.9535997551147</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>777.9535997551147</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V45" t="n">
-        <v>777.9535997551147</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W45" t="n">
-        <v>570.3598174942255</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X45" t="n">
-        <v>362.7660352333362</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y45" t="n">
-        <v>155.1722529724469</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>714.8532122705639</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>754.041250462786</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>797.7321011182223</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>822.0713777531216</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R46" t="n">
-        <v>822.0713777531216</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S46" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>287.1168215956966</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>256.3140754849514</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>139.0491612396719</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>193.4844405477277</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,13 +8221,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8300,19 +8300,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>336.8595565216137</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>204.5647025239554</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8455,19 +8455,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>360.3696370111358</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>233.7538122443171</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8698,16 +8698,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8774,16 +8774,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>230.174158102173</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,19 +9008,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>154.8597658442563</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9248,13 +9248,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9491,13 +9491,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>244.7225752110828</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9719,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>233.2169876979182</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9734,10 +9734,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9968,10 +9968,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P27" t="n">
-        <v>238.6269471880057</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10436,16 +10436,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>312.04082470182</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10667,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10904,22 +10904,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11065,13 +11065,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11141,19 +11141,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>269.7148239424616</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11299,16 +11299,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11381,16 +11381,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>233.7538122443171</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23272,10 +23272,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>287.0492336280195</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23302,10 +23302,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23314,19 +23314,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>168.2208513361757</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23348,7 +23348,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -23387,22 +23387,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>106.1490093580402</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>22.90170136537088</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,13 +23460,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23500,16 +23500,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>124.4792166637132</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23548,7 +23548,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>42.075732182894</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23557,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23576,7 +23576,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23588,7 +23588,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>115.5152211516973</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23624,13 +23624,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>2.511945073032081</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23679,7 +23679,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,16 +23694,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23749,13 +23749,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>119.2616763733422</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23785,7 +23785,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23813,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>40.94251379500832</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23861,13 +23861,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23876,7 +23876,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23937,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>371.540785507301</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24013,22 +24013,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24047,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24062,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>22.86437848593511</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24104,16 +24104,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>182.5302275868983</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24174,10 +24174,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24208,19 +24208,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>152.3883551917857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24271,7 +24271,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24287,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>81.70178455167252</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24335,7 +24335,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>109.5662672500513</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24344,7 +24344,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
@@ -24353,7 +24353,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24445,10 +24445,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24460,7 +24460,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24487,13 +24487,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24508,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24521,19 +24521,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24542,7 +24542,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>40.94685339287818</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24584,10 +24584,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>203.8284657848434</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24682,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24691,7 +24691,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24727,25 +24727,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>215.4233321629012</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24758,19 +24758,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>84.58157038459437</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>35.33272446489578</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24815,19 +24815,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24882,7 +24882,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
@@ -24894,13 +24894,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>239.2941050228172</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24922,13 +24922,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>179.6356836433646</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24967,25 +24967,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>375.044882499874</v>
       </c>
     </row>
     <row r="33">
@@ -24998,25 +24998,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>28.47567994102585</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25049,19 +25049,19 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>201.1924361087609</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>345.4485756045711</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25177,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25241,10 +25241,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25253,10 +25253,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>84.21309295855686</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25286,13 +25286,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>205.8147789473718</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25353,13 +25353,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>156.0574714863295</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25405,16 +25405,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>0.7562331984329429</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,22 +25435,22 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25478,22 +25478,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>40.06664745181419</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25532,13 +25532,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25636,13 +25636,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>297.5105822931005</v>
       </c>
       <c r="F41" t="n">
-        <v>201.358201303431</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25672,13 +25672,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.2178212748162</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,19 +25706,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>66.31411304886144</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25727,7 +25727,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>76.23347293972201</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25754,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25775,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G43" t="n">
         <v>167.9909793584588</v>
@@ -25806,7 +25806,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
         <v>93.35918011667277</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>135.0690668140378</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25876,13 +25876,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>168.4453839490745</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25918,13 +25918,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25946,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>38.04093029885675</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25958,7 +25958,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>56.48123393461632</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26000,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26067,13 +26067,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>975953.6203790974</v>
+        <v>968610.6888588504</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>975953.6203790973</v>
+        <v>977668.3496304801</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>975953.6203790973</v>
+        <v>977668.3496304801</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>394598.1612555141</v>
+        <v>415639.8611086184</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>394598.1612555142</v>
+        <v>415639.8611086184</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>415639.8611086186</v>
+        <v>415639.8611086184</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>415639.8611086184</v>
+        <v>415639.8611086186</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>415639.8611086186</v>
+        <v>415639.8611086183</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>415639.8611086183</v>
+        <v>415639.8611086184</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>415639.8611086184</v>
+        <v>415639.8611086187</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>394598.1612555141</v>
+        <v>415639.8611086184</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>394598.1612555142</v>
+        <v>415639.8611086184</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185702</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="C2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
-        <v>189309.170201918</v>
+        <v>199392.8070375988</v>
       </c>
       <c r="F2" t="n">
-        <v>189309.1702019179</v>
+        <v>199392.8070375988</v>
       </c>
       <c r="G2" t="n">
         <v>199392.8070375988</v>
@@ -26334,28 +26334,28 @@
         <v>199392.8070375987</v>
       </c>
       <c r="I2" t="n">
-        <v>199392.8070375987</v>
+        <v>199392.8070375988</v>
       </c>
       <c r="J2" t="n">
         <v>199392.8070375988</v>
       </c>
       <c r="K2" t="n">
-        <v>199392.8070375988</v>
+        <v>199392.8070375987</v>
       </c>
       <c r="L2" t="n">
-        <v>199392.8070375988</v>
+        <v>199392.8070375987</v>
       </c>
       <c r="M2" t="n">
         <v>199392.8070375987</v>
       </c>
       <c r="N2" t="n">
+        <v>199392.8070375987</v>
+      </c>
+      <c r="O2" t="n">
         <v>199392.8070375988</v>
       </c>
-      <c r="O2" t="n">
-        <v>189309.170201918</v>
-      </c>
       <c r="P2" t="n">
-        <v>189309.1702019179</v>
+        <v>199392.8070375988</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68873.75658168984</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>60576.32218666811</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9729.042974167098</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>53772.51089020943</v>
+        <v>14001.23214027929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>48256.95293363261</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>320447.2707415524</v>
+        <v>354071.2011411577</v>
       </c>
       <c r="C4" t="n">
-        <v>320447.2707415523</v>
+        <v>312595.3744187172</v>
       </c>
       <c r="D4" t="n">
-        <v>320447.2707415524</v>
+        <v>312595.3744187171</v>
       </c>
       <c r="E4" t="n">
-        <v>31909.3965941043</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="F4" t="n">
-        <v>31909.3965941043</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="G4" t="n">
         <v>33649.84678425771</v>
@@ -26441,7 +26441,7 @@
         <v>33649.84678425771</v>
       </c>
       <c r="J4" t="n">
-        <v>33649.84678425771</v>
+        <v>33649.8467842577</v>
       </c>
       <c r="K4" t="n">
         <v>33649.84678425771</v>
@@ -26456,10 +26456,10 @@
         <v>33649.84678425771</v>
       </c>
       <c r="O4" t="n">
-        <v>31909.39659410429</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="P4" t="n">
-        <v>31909.3965941043</v>
+        <v>33649.84678425771</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46123.08494184745</v>
+        <v>36881.16176380494</v>
       </c>
       <c r="C5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26508,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57180.94965348053</v>
+        <v>83739.41975420612</v>
       </c>
       <c r="C6" t="n">
-        <v>126054.7062351702</v>
+        <v>71172.09654942306</v>
       </c>
       <c r="D6" t="n">
-        <v>126054.7062351701</v>
+        <v>131748.4187360913</v>
       </c>
       <c r="E6" t="n">
-        <v>144904.2886659662</v>
+        <v>138871.280869539</v>
       </c>
       <c r="F6" t="n">
-        <v>144904.2886659662</v>
+        <v>138871.280869539</v>
       </c>
       <c r="G6" t="n">
-        <v>141360.2485154123</v>
+        <v>138871.280869539</v>
       </c>
       <c r="H6" t="n">
-        <v>151089.2914895794</v>
+        <v>138871.2808695389</v>
       </c>
       <c r="I6" t="n">
-        <v>151089.2914895793</v>
+        <v>138871.2808695389</v>
       </c>
       <c r="J6" t="n">
-        <v>97316.78059936999</v>
+        <v>124870.0487292596</v>
       </c>
       <c r="K6" t="n">
-        <v>151089.2914895794</v>
+        <v>90614.32793590624</v>
       </c>
       <c r="L6" t="n">
-        <v>151089.2914895794</v>
+        <v>138871.2808695389</v>
       </c>
       <c r="M6" t="n">
-        <v>151089.2914895793</v>
+        <v>138871.2808695389</v>
       </c>
       <c r="N6" t="n">
-        <v>151089.2914895794</v>
+        <v>138871.2808695389</v>
       </c>
       <c r="O6" t="n">
-        <v>144904.2886659662</v>
+        <v>138871.2808695389</v>
       </c>
       <c r="P6" t="n">
-        <v>144904.2886659662</v>
+        <v>138871.2808695389</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -26828,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>184.2527743897701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,19 +27390,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>156.9633605604562</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,13 +27423,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>155.5075405762956</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27441,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>346.2259049914531</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>125.574663436352</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27472,16 +27472,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>58.72291522654671</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>146.6521996848718</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27520,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>153.8169360465155</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>152.2604561935277</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>32.64951424174463</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27593,16 +27593,16 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>232.8065003465411</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>156.0574714863295</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>221.8172376494515</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>301.251446211517</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,10 +27636,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>4.958045132125505</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,25 +27660,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>3.502225147964936</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>190.3996345930221</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27703,19 +27703,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>73.80613849443468</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27754,13 +27754,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>232.6015250123486</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>59.05078607424917</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>88.11912650183325</v>
       </c>
     </row>
     <row r="8">
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>320.273092030292</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27897,10 +27897,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27909,16 +27909,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>150.5359555927217</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27931,16 +27931,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>36.56097831429658</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27994,10 +27994,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>174.7582499335384</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28031,10 +28031,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195525</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28064,7 +28064,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>119.7495544039028</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
-        <v>26.21586406326473</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4947814597977008</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,13 +34941,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35020,19 +35020,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>205.5178444382804</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>70.5902951096252</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>130.2714255894491</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>91.61977832229879</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35418,16 +35418,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>91.61977832229879</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>12.72573192223801</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35968,13 +35968,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -36211,13 +36211,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>113.3808631277494</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>91.0829537758999</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36454,10 +36454,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36688,10 +36688,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P27" t="n">
-        <v>104.6525397736754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9067907798017</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37554,7 +37554,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37785,13 +37785,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37861,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>127.1185794980172</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38019,16 +38019,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38101,16 +38101,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>91.61977832229879</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
